--- a/Technology/Software/Elastic.xlsx
+++ b/Technology/Software/Elastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F2DA3-4F07-434F-861E-B5E97C102FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE4633-79B1-094A-8CED-54E54AA30367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1290,12 +1290,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1316,12 +1310,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1476,20 +1464,11 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1514,6 +1493,24 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,13 +1540,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1565,14 +1564,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1582,6 +1581,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1709,11 +1710,9 @@
     <v>Powered by Refinitiv</v>
     <v>84.04</v>
     <v>46.18</v>
-    <v>0.87250000000000005</v>
-    <v>0.38</v>
-    <v>4.6439999999999997E-3</v>
-    <v>-0.38</v>
-    <v>-4.6229999999999995E-3</v>
+    <v>0.88270000000000004</v>
+    <v>-0.55000000000000004</v>
+    <v>-7.2819999999999994E-3</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2995</v>
@@ -1721,24 +1720,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>84.04</v>
+    <v>76.194999999999993</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999777835154</v>
+    <v>45225.958333356248</v>
     <v>0</v>
-    <v>81.849999999999994</v>
-    <v>8108714352</v>
+    <v>73.98</v>
+    <v>7396489076</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>82.49</v>
-    <v>81.819999999999993</v>
-    <v>82.2</v>
-    <v>81.819999999999993</v>
+    <v>75.760000000000005</v>
+    <v>75.53</v>
+    <v>74.98</v>
     <v>98646160</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>1897908</v>
-    <v>1285535</v>
+    <v>1232417</v>
+    <v>1374234</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1770,8 +1768,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1791,7 +1787,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1808,7 +1803,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1819,16 +1814,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1892,19 +1884,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1948,9 +1934,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1958,9 +1941,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2344,20 +2324,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="E36:H36"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2398,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2483,7 @@
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2524,7 @@
         <v>293753000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2585,7 +2565,7 @@
         <v>77477000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2606,7 @@
         <v>77477000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>16</v>
       </c>
@@ -2667,7 +2647,7 @@
         <v>216276000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
@@ -2708,7 +2688,7 @@
         <v>73.63</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -2749,7 +2729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2790,7 +2770,7 @@
         <v>251798000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2901,7 +2881,7 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -3012,7 +2992,7 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -3053,7 +3033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>23</v>
       </c>
@@ -3094,7 +3074,7 @@
         <v>-35522000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>53</v>
       </c>
@@ -3199,7 +3179,7 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -3240,7 +3220,7 @@
         <v>-269000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -3281,7 +3261,7 @@
         <v>6306000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -3322,7 +3302,7 @@
         <v>6306000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -3363,7 +3343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3404,7 +3384,7 @@
         <v>-6575000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3445,7 +3425,7 @@
         <v>-35253000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -3486,7 +3466,7 @@
         <v>13255000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -3527,7 +3507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3568,7 +3548,7 @@
         <v>-48508000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -3609,7 +3589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -3650,7 +3630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -3691,7 +3671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3712,7 @@
         <v>-48508000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -3773,7 +3753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>38</v>
       </c>
@@ -3814,7 +3794,7 @@
         <v>-48508000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>54</v>
       </c>
@@ -3983,7 +3963,7 @@
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4024,7 +4004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -4065,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -4106,7 +4086,7 @@
         <v>-48508000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -4147,7 +4127,7 @@
         <v>97942049</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -4188,7 +4168,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -4229,7 +4209,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -4270,7 +4250,7 @@
         <v>97942049</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -4311,7 +4291,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4332,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -4393,7 +4373,7 @@
         <v>-30469000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -4434,7 +4414,7 @@
         <v>-12.82</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -4475,7 +4455,7 @@
         <v>-35522000</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -4516,7 +4496,7 @@
         <v>-35522000</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>55</v>
       </c>
@@ -4557,7 +4537,7 @@
         <v>101786</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -4598,7 +4578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -4639,7 +4619,7 @@
         <v>5053000</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4680,7 +4660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -4721,7 +4701,7 @@
         <v>1240364000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
@@ -4762,7 +4742,7 @@
         <v>957093000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -4803,7 +4783,7 @@
         <v>630565000</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
@@ -4844,7 +4824,7 @@
         <v>326528000</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4865,7 @@
         <v>185372000</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -4926,7 +4906,7 @@
         <v>185372000</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
@@ -4967,7 +4947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -5008,7 +4988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -5049,7 +5029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -5090,7 +5070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
@@ -5131,7 +5111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
@@ -5172,7 +5152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
@@ -5213,7 +5193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
@@ -5254,7 +5234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
@@ -5295,7 +5275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
@@ -5336,7 +5316,7 @@
         <v>97899000</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -5377,7 +5357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
@@ -5418,7 +5398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
@@ -5459,7 +5439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
@@ -5500,7 +5480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
@@ -5541,7 +5521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
@@ -5582,7 +5562,7 @@
         <v>461046000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
@@ -5623,7 +5603,7 @@
         <v>6497000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
@@ -5664,7 +5644,7 @@
         <v>22469000</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
@@ -5705,7 +5685,7 @@
         <v>15972000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
@@ -5746,7 +5726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
@@ -5787,7 +5767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
@@ -5828,7 +5808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
@@ -5869,7 +5849,7 @@
         <v>454549000</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
@@ -5910,7 +5890,7 @@
         <v>328732000</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
@@ -5951,7 +5931,7 @@
         <v>303836000</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
@@ -5992,7 +5972,7 @@
         <v>24896000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>90</v>
       </c>
@@ -6033,7 +6013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>91</v>
       </c>
@@ -6074,7 +6054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>92</v>
       </c>
@@ -6115,7 +6095,7 @@
         <v>125817000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>93</v>
       </c>
@@ -6156,7 +6136,7 @@
         <v>1701410000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>94</v>
       </c>
@@ -6197,7 +6177,7 @@
         <v>80488000</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>95</v>
       </c>
@@ -6238,7 +6218,7 @@
         <v>16035000</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -6279,7 +6259,7 @@
         <v>24445000</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
@@ -6320,7 +6300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>98</v>
       </c>
@@ -6361,7 +6341,7 @@
         <v>40008000</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>99</v>
       </c>
@@ -6402,7 +6382,7 @@
         <v>11627000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>100</v>
       </c>
@@ -6443,7 +6423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>101</v>
       </c>
@@ -6484,7 +6464,7 @@
         <v>11627000</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>102</v>
       </c>
@@ -6525,7 +6505,7 @@
         <v>579619000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>103</v>
       </c>
@@ -6566,7 +6546,7 @@
         <v>506919000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>104</v>
       </c>
@@ -6607,7 +6587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -6648,7 +6628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>106</v>
       </c>
@@ -6689,7 +6669,7 @@
         <v>72700000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>107</v>
       </c>
@@ -6730,7 +6710,7 @@
         <v>671734000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>108</v>
       </c>
@@ -6771,7 +6751,7 @@
         <v>579800000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
@@ -6812,7 +6792,7 @@
         <v>567806000</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>110</v>
       </c>
@@ -6853,7 +6833,7 @@
         <v>11994000</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
@@ -6894,7 +6874,7 @@
         <v>38153000</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>112</v>
       </c>
@@ -6935,7 +6915,7 @@
         <v>27214000</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>113</v>
       </c>
@@ -6976,7 +6956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>103</v>
       </c>
@@ -7017,7 +6997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -7058,7 +7038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>104</v>
       </c>
@@ -7099,7 +7079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
@@ -7140,7 +7120,7 @@
         <v>10939000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -7181,7 +7161,7 @@
         <v>617953000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
@@ -7222,7 +7202,7 @@
         <v>1289687000</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
@@ -7263,7 +7243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
@@ -7304,7 +7284,7 @@
         <v>1533578000</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
@@ -7345,7 +7325,7 @@
         <v>1035000</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -7386,7 +7366,7 @@
         <v>1532543000</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
@@ -7427,7 +7407,7 @@
         <v>369000</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
@@ -7468,7 +7448,7 @@
         <v>-1101835000</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
@@ -7509,7 +7489,7 @@
         <v>-19651000</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
@@ -7550,7 +7530,7 @@
         <v>411723000</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
@@ -7591,7 +7571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
@@ -7632,7 +7612,7 @@
         <v>411723000</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>127</v>
       </c>
@@ -7673,7 +7653,7 @@
         <v>1701410000</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>128</v>
       </c>
@@ -7781,7 +7761,7 @@
       <c r="AC129" s="14"/>
       <c r="AD129" s="14"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -7822,7 +7802,7 @@
         <v>23621000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -7863,7 +7843,7 @@
         <v>-62759000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -7904,7 +7884,7 @@
         <v>-15.24</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -7945,7 +7925,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -7986,7 +7966,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -8027,7 +8007,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
@@ -8068,7 +8048,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>18</v>
       </c>
@@ -8109,7 +8089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
@@ -8150,7 +8130,7 @@
         <v>-48508000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
@@ -8191,7 +8171,7 @@
         <v>5053000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
@@ -8232,7 +8212,7 @@
         <v>76704000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>139</v>
       </c>
@@ -8343,7 +8323,7 @@
       <c r="AC143" s="14"/>
       <c r="AD143" s="14"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>140</v>
       </c>
@@ -8384,7 +8364,7 @@
         <v>392000</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>141</v>
       </c>
@@ -8425,7 +8405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>142</v>
       </c>
@@ -8466,7 +8446,7 @@
         <v>19185000</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>143</v>
       </c>
@@ -8507,7 +8487,7 @@
         <v>4563000</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>144</v>
       </c>
@@ -8548,7 +8528,7 @@
         <v>75871000</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>145</v>
       </c>
@@ -8589,7 +8569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>146</v>
       </c>
@@ -8630,7 +8610,7 @@
         <v>4896000</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>147</v>
       </c>
@@ -8671,7 +8651,7 @@
         <v>-19644000</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>148</v>
       </c>
@@ -8712,7 +8692,7 @@
         <v>-56560000</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>149</v>
       </c>
@@ -8753,7 +8733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>150</v>
       </c>
@@ -8794,7 +8774,7 @@
         <v>37812000</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>151</v>
       </c>
@@ -8835,7 +8815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>152</v>
       </c>
@@ -8876,7 +8856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>153</v>
       </c>
@@ -8917,7 +8897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>154</v>
       </c>
@@ -8958,7 +8938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>155</v>
       </c>
@@ -8999,7 +8979,7 @@
         <v>-632000</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>156</v>
       </c>
@@ -9040,7 +9020,7 @@
         <v>-632000</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>157</v>
       </c>
@@ -9081,7 +9061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>158</v>
       </c>
@@ -9122,7 +9102,7 @@
         <v>-54463000</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>159</v>
       </c>
@@ -9163,7 +9143,7 @@
         <v>29116000</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>160</v>
       </c>
@@ -9204,7 +9184,7 @@
         <v>-83579000</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>161</v>
       </c>
@@ -9245,7 +9225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>162</v>
       </c>
@@ -9286,7 +9266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>163</v>
       </c>
@@ -9327,7 +9307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>164</v>
       </c>
@@ -9368,7 +9348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>165</v>
       </c>
@@ -9409,7 +9389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>149</v>
       </c>
@@ -9450,7 +9430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>166</v>
       </c>
@@ -9491,7 +9471,7 @@
         <v>-55095000</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>167</v>
       </c>
@@ -9532,7 +9512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>168</v>
       </c>
@@ -9573,7 +9553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>169</v>
       </c>
@@ -9614,7 +9594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>170</v>
       </c>
@@ -9655,7 +9635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>171</v>
       </c>
@@ -9696,7 +9676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>172</v>
       </c>
@@ -9737,7 +9717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>173</v>
       </c>
@@ -9778,7 +9758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>174</v>
       </c>
@@ -9819,7 +9799,7 @@
         <v>3843000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>149</v>
       </c>
@@ -9860,7 +9840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>175</v>
       </c>
@@ -9901,7 +9881,7 @@
         <v>3843000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>176</v>
       </c>
@@ -9942,7 +9922,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>177</v>
       </c>
@@ -9983,7 +9963,7 @@
         <v>-13440000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>48</v>
       </c>
@@ -10024,7 +10004,7 @@
         <v>-30469000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>49</v>
       </c>
@@ -10065,7 +10045,7 @@
         <v>-12.82</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>178</v>
       </c>
@@ -10106,7 +10086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>179</v>
       </c>
@@ -10147,7 +10127,7 @@
         <v>37180000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>180</v>
       </c>
@@ -12041,7 +12021,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="3"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>181</v>
       </c>
@@ -12082,7 +12062,7 @@
         <v>37180000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>182</v>
       </c>
@@ -12123,7 +12103,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>183</v>
       </c>
@@ -12164,7 +12144,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>184</v>
       </c>
@@ -12205,12 +12185,9 @@
         <v>-0.78</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:13" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:13" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:13" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -12227,7 +12204,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12235,48 +12212,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-    </row>
-    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8108714352</v>
+        <v>7396489076</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>195</v>
@@ -12304,7 +12281,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>14337259531.387197</v>
+        <v>14282372640.515751</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>199</v>
@@ -12312,222 +12289,222 @@
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="116"/>
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <f>Financials!I56-Financials!I96-Financials!I105</f>
         <v>365666000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <f>Financials!I17*0.01</f>
         <v>-0.14630000000000001</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>SUM(C13:E13)/3</f>
         <v>0.16922695033028248</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>A5*(1+(5*0.05))</f>
         <v>123307700</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>11446647234.690018</v>
-      </c>
-      <c r="J4" s="52" t="s">
+        <v>11398603930.65926</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.6439999999999997E-3</v>
+        <v>-7.2819999999999994E-3</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>206</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="117" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="57"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="51" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>98646160</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <f>Financials!I34*0.01</f>
         <v>-0.1933</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>SUM(C15:E15)/3</f>
         <v>2.3358529268791841</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="51">
         <f>Financials!I56</f>
         <v>957093000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>11812313234.690018</v>
-      </c>
-      <c r="J5" s="52" t="s">
+        <v>11764269930.65926</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>82.2</v>
-      </c>
-      <c r="L5" s="50" t="s">
+        <v>74.98</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>213</v>
       </c>
       <c r="M5" s="46"/>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="57">
         <f>Financials!I21</f>
         <v>25064000</v>
       </c>
       <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>6.5025776680032079</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>5.9314266848436246</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <f>Financials!I190</f>
         <v>7.2207078346414585E-2</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f>Financials!I33/Financials!I126</f>
         <v>-0.52248234856930509</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <f>Financials!I96+Financials!I105</f>
         <v>591427000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="60">
         <f>N25</f>
-        <v>7.7475160845972807E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>7.7676821907430069E-2</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>95.795422627216453</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>95.405801346219747</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>219</v>
       </c>
       <c r="M6" s="46"/>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="64">
         <f>Financials!I96</f>
         <v>11627000</v>
       </c>
       <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>74.119875246800731</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>67.609589360146259</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>2.0114615719406762E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
+        <v>2.1908091964785936E-2</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="69">
         <f>(Financials!I16*(1-0.25))/(Financials!I126+Financials!I105+Financials!I96)</f>
         <v>-0.12168369635647709</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="70">
         <f>(Financials!I96+Financials!I105)/Financials!I126</f>
         <v>1.4364682079942097</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="72">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>0.16539443585421476</v>
-      </c>
-      <c r="L7" s="79" t="s">
+        <v>0.27241666239290141</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>225</v>
       </c>
       <c r="M7" s="46"/>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="64">
         <f>Financials!I105</f>
         <v>579800000</v>
       </c>
       <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -12540,662 +12517,662 @@
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="78">
         <f>O5/(O6+O7)</f>
         <v>4.2378856562179275E-2</v>
       </c>
       <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80">
         <v>2020</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="80">
         <v>2021</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="80">
         <v>2022</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="80">
         <v>2023</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="81">
         <v>2024</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="82">
         <v>2025</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="82">
         <v>2026</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="82">
         <v>2027</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="82">
         <v>2028</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="64">
         <f>Financials!I25</f>
         <v>29691000</v>
       </c>
       <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="86">
         <v>427620000</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="86">
         <v>608489000</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="86">
         <v>862374000</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="86">
         <v>1068989000</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="87">
         <v>1247000000</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="86">
         <v>1471000000</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="86">
         <v>1781000000</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="86">
         <v>2177000000</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="86">
         <v>2582000000</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="88" t="s">
         <v>229</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="64">
         <f>Financials!I24</f>
         <v>-185427000</v>
       </c>
       <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.42296665263551758</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="90">
         <f t="shared" si="0"/>
         <v>0.41723843816404238</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="90">
         <f t="shared" si="0"/>
         <v>0.23958862396129743</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="91">
         <f t="shared" si="0"/>
         <v>0.16652276122579379</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="90">
         <f t="shared" si="0"/>
         <v>0.17963111467522053</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="90">
         <f t="shared" si="0"/>
         <v>0.21074099252209377</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="90">
         <f t="shared" si="0"/>
         <v>0.22234699606962383</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="90">
         <f t="shared" si="0"/>
         <v>0.18603582912264582</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
         <v>0.19305553872307554</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="93">
         <f>O9/O10</f>
         <v>-0.16012231228461873</v>
       </c>
       <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="86">
         <v>-167174000</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="86">
         <v>-129434000</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="86">
         <v>-203848000</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="86">
         <v>-236161000</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="87">
         <v>109400000</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="86">
         <v>154600000</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="86">
         <v>234000000</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="86">
         <v>241000000</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="86">
         <v>285000000</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="O12" s="99">
+      <c r="O12" s="95">
         <f>O8*(1-O11)</f>
         <v>4.9164657066893609E-2</v>
       </c>
       <c r="P12" s="46"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.22575280845107493</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="90">
         <f t="shared" si="1"/>
         <v>0.57491849127740768</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="90">
         <f t="shared" si="1"/>
         <v>0.15851516816451472</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="91">
         <f t="shared" si="1"/>
         <v>-1.463243295887128</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="90">
         <f t="shared" si="1"/>
         <v>0.41316270566727598</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="90">
         <f t="shared" si="1"/>
         <v>0.51358344113842169</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="90">
         <f t="shared" si="1"/>
         <v>2.9914529914529808E-2</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>0.18257261410788383</v>
       </c>
-      <c r="K13" s="96">
+      <c r="K13" s="92">
         <f>SUM(F13:J13)/5</f>
         <v>-6.4802001011803334E-2</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="57"/>
+      <c r="O13" s="118"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="86">
         <v>-35627000</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="86">
         <v>18316000</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="86">
         <v>3187000</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="86">
         <v>32978000</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="87">
         <v>175000000</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="86">
         <v>240000000</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="86">
         <v>359000000</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="86">
         <v>556000000</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="86">
         <v>734000000</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="67" t="s">
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="O14" s="97">
+      <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="100"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94">
+      <c r="A15" s="96"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>-1.5141044713279255</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="90">
         <f t="shared" si="2"/>
         <v>-0.8259991264468225</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="90">
         <f t="shared" si="2"/>
         <v>9.3476623784123003</v>
       </c>
-      <c r="F15" s="95">
+      <c r="F15" s="91">
         <f t="shared" si="2"/>
         <v>4.3065680150403303</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="90">
         <f t="shared" si="2"/>
         <v>0.37142857142857144</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="90">
         <f t="shared" si="2"/>
         <v>0.49583333333333335</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="90">
         <f t="shared" si="2"/>
         <v>0.54874651810584951</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="90">
         <f t="shared" si="2"/>
         <v>0.32014388489208634</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="92">
         <f>SUM(F15:J15)/5</f>
         <v>1.2085440645600343</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="67" t="s">
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="O15" s="101" cm="1">
+      <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.87250000000000005</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="P15" s="46"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="98">
         <v>-0.28573822178382724</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="98">
         <v>-0.20272834691696173</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="98">
         <v>-0.12901449407420759</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="98">
         <v>-0.14188082941726721</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="93">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="46"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="107" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="103" t="s">
         <v>234</v>
       </c>
-      <c r="O17" s="108">
+      <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.9540050000000001E-2</v>
+        <v>7.9956669000000008E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="56" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O18" s="57"/>
+      <c r="O18" s="118"/>
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="str" cm="1">
+      <c r="A19" s="119" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110" cm="1">
+      <c r="B19" s="119"/>
+      <c r="C19" s="120" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="67" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="112">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>591427000</v>
       </c>
       <c r="P19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="str" cm="1">
+      <c r="A20" s="119" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="67" t="s">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="O20" s="112" cm="1">
+      <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>8108714352</v>
+        <v>7396489076</v>
       </c>
       <c r="P20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="67" t="s">
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="112">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>8700141352</v>
+        <v>7987916076</v>
       </c>
       <c r="P21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="81" t="s">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>6.7979010463323331E-2</v>
+        <v>7.4040212036899727E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="107" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.93202098953667667</v>
+        <v>0.9259597879631003</v>
       </c>
       <c r="P23" s="46"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="116" t="s">
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="110"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="118">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="111">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.7475160845972807E-2</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>7.7676821907430069E-2</v>
+      </c>
+      <c r="O25" s="112"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
     </row>
@@ -13236,526 +13213,526 @@
       <c r="P32" s="46"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="84"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="84"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="84"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="84"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="84"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="84"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="84"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="84"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="84"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="84"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="46"/>

--- a/Technology/Software/Elastic.xlsx
+++ b/Technology/Software/Elastic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE4633-79B1-094A-8CED-54E54AA30367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1073D7-80A4-4848-880F-A09F546D1523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1476,6 +1476,9 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,9 +1508,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1545,13 +1545,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
-      <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1568,7 +1564,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1579,10 +1575,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1710,9 +1702,9 @@
     <v>Powered by Refinitiv</v>
     <v>84.04</v>
     <v>46.18</v>
-    <v>0.88270000000000004</v>
-    <v>-0.55000000000000004</v>
-    <v>-7.2819999999999994E-3</v>
+    <v>0.88160000000000005</v>
+    <v>-3.61</v>
+    <v>-4.8468999999999998E-2</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2995</v>
@@ -1720,23 +1712,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>76.194999999999993</v>
+    <v>76.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.958333356248</v>
+    <v>45232.988250346876</v>
     <v>0</v>
-    <v>73.98</v>
-    <v>7396489076</v>
+    <v>70.73</v>
+    <v>6991053359</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>75.760000000000005</v>
-    <v>75.53</v>
-    <v>74.98</v>
+    <v>76.540000000000006</v>
+    <v>74.48</v>
+    <v>70.87</v>
+    <v>70.849999999999994</v>
     <v>98646160</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>1232417</v>
-    <v>1374234</v>
+    <v>3</v>
+    <v>1373608</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1787,6 +1780,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1803,7 +1797,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1814,6 +1808,7 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -1884,13 +1879,15 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1934,6 +1931,7 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1941,6 +1939,7 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -12204,7 +12203,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12212,48 +12211,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="e" vm="1">
+    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="114" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-    </row>
-    <row r="2" spans="1:16" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+    </row>
+    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7396489076</v>
+        <v>6991053359</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>195</v>
@@ -12281,7 +12280,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>14282372640.515751</v>
+        <v>14348292614.015266</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>199</v>
@@ -12289,10 +12288,10 @@
       <c r="K3" s="44"/>
       <c r="L3" s="45"/>
       <c r="M3" s="46"/>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="116"/>
+      <c r="O3" s="117"/>
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12326,23 +12325,23 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>11398603930.65926</v>
+        <v>11456305050.177864</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-7.2819999999999994E-3</v>
+        <v>-4.8468999999999998E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>206</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="118"/>
+      <c r="O4" s="119"/>
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12376,14 +12375,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>11764269930.65926</v>
+        <v>11821971050.177864</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>74.98</v>
+        <v>70.87</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>213</v>
@@ -12401,7 +12400,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>5.9314266848436246</v>
+        <v>5.6062978019246188</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>215</v>
@@ -12429,14 +12428,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>7.7676821907430069E-2</v>
+        <v>7.7434810206275836E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>95.405801346219747</v>
+        <v>95.873745517740289</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>219</v>
@@ -12454,14 +12453,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>67.609589360146259</v>
+        <v>63.903595603290675</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>2.1908091964785936E-2</v>
+        <v>2.307951906427088E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>222</v>
@@ -12488,7 +12487,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>0.27241666239290141</v>
+        <v>0.352811422572884</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>225</v>
@@ -12746,10 +12745,10 @@
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
-      <c r="N13" s="117" t="s">
+      <c r="N13" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="118"/>
+      <c r="O13" s="119"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -12793,7 +12792,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -12843,7 +12842,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.88270000000000004</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -12898,7 +12897,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.9956669000000008E-2</v>
+        <v>7.9826400000000006E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -12916,18 +12915,18 @@
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
       <c r="M18" s="84"/>
-      <c r="N18" s="117" t="s">
+      <c r="N18" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="O18" s="118"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="str" cm="1">
+      <c r="A19" s="109" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B19" s="119"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="120" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
@@ -12952,14 +12951,14 @@
       <c r="P19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="119" t="str" cm="1">
+      <c r="A20" s="109" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="84"/>
       <c r="G20" s="84"/>
       <c r="H20" s="84"/>
@@ -12973,16 +12972,16 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>7396489076</v>
+        <v>6991053359</v>
       </c>
       <c r="P20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
       <c r="H21" s="84"/>
@@ -12995,16 +12994,16 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>7987916076</v>
+        <v>7582480359</v>
       </c>
       <c r="P21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="84"/>
       <c r="G22" s="84"/>
       <c r="H22" s="84"/>
@@ -13018,16 +13017,16 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>7.4040212036899727E-2</v>
+        <v>7.7999146980711614E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="84"/>
       <c r="G23" s="84"/>
       <c r="H23" s="84"/>
@@ -13041,16 +13040,16 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.9259597879631003</v>
+        <v>0.92200085301928836</v>
       </c>
       <c r="P23" s="46"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="84"/>
       <c r="G24" s="84"/>
       <c r="H24" s="84"/>
@@ -13059,18 +13058,18 @@
       <c r="K24" s="84"/>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
-      <c r="N24" s="109" t="s">
+      <c r="N24" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="O24" s="110"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
       <c r="H25" s="84"/>
@@ -13079,11 +13078,11 @@
       <c r="K25" s="84"/>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
-      <c r="N25" s="111">
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.7676821907430069E-2</v>
-      </c>
-      <c r="O25" s="112"/>
+        <v>7.7434810206275836E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">

--- a/Technology/Software/Elastic.xlsx
+++ b/Technology/Software/Elastic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1073D7-80A4-4848-880F-A09F546D1523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7F20E-5CB7-0E49-B4AC-554C22FCB9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1547,6 +1547,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1564,7 +1565,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1575,6 +1576,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1702,9 +1704,9 @@
     <v>Powered by Refinitiv</v>
     <v>84.04</v>
     <v>46.18</v>
-    <v>0.88160000000000005</v>
-    <v>-3.61</v>
-    <v>-4.8468999999999998E-2</v>
+    <v>0.87560000000000004</v>
+    <v>-1.1000000000000001</v>
+    <v>-1.4493000000000001E-2</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2995</v>
@@ -1712,24 +1714,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>76.97</v>
+    <v>76.25</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.988250346876</v>
+    <v>45239.000000010936</v>
     <v>0</v>
-    <v>70.73</v>
-    <v>6991053359</v>
+    <v>73.94</v>
+    <v>7378732768</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>76.540000000000006</v>
-    <v>74.48</v>
-    <v>70.87</v>
-    <v>70.849999999999994</v>
+    <v>75.760000000000005</v>
+    <v>75.900000000000006</v>
+    <v>74.8</v>
     <v>98646160</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>3</v>
-    <v>1373608</v>
+    <v>1</v>
+    <v>1447187</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1780,7 +1781,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1797,7 +1797,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1808,7 +1808,6 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -1879,15 +1878,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1931,7 +1928,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1939,7 +1935,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -12202,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1410FA38-49CC-3D41-A1CF-E8F2FA4FA00D}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12252,7 +12247,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6991053359</v>
+        <v>7378732768</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>195</v>
@@ -12280,7 +12275,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>14348292614.015266</v>
+        <v>14466816598.436798</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>199</v>
@@ -12325,14 +12320,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>11456305050.177864</v>
+        <v>11560063349.151331</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="42" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.8468999999999998E-2</v>
+        <v>-1.4493000000000001E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>206</v>
@@ -12375,14 +12370,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>11821971050.177864</v>
+        <v>11925729349.151331</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>70.87</v>
+        <v>74.8</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>213</v>
@@ -12400,7 +12395,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>5.6062978019246188</v>
+        <v>5.9171874643143543</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>215</v>
@@ -12428,14 +12423,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>7.7434810206275836E-2</v>
+        <v>7.7005221389292694E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>95.873745517740289</v>
+        <v>96.715203909823401</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>219</v>
@@ -12453,14 +12448,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>63.903595603290675</v>
+        <v>67.447283071297988</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>2.307951906427088E-2</v>
+        <v>2.1956899873277421E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>222</v>
@@ -12487,7 +12482,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>0.352811422572884</v>
+        <v>0.29298400948961767</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>225</v>
@@ -12792,7 +12787,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -12842,7 +12837,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.88160000000000005</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -12897,7 +12892,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.9826400000000006E-2</v>
+        <v>7.9236724000000008E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -12972,7 +12967,7 @@
       </c>
       <c r="O20" s="106" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>6991053359</v>
+        <v>7378732768</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -12994,7 +12989,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>7582480359</v>
+        <v>7970159768</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -13017,7 +13012,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>7.7999146980711614E-2</v>
+        <v>7.4205162407730549E-2</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -13040,7 +13035,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.92200085301928836</v>
+        <v>0.92579483759226944</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -13080,7 +13075,7 @@
       <c r="M25" s="84"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.7434810206275836E-2</v>
+        <v>7.7005221389292694E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Elastic.xlsx
+++ b/Technology/Software/Elastic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7F20E-5CB7-0E49-B4AC-554C22FCB9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49984E2-E855-964A-9129-AE1DD2754F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="246">
   <si>
     <t>2017 Y</t>
   </si>
@@ -694,9 +694,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -806,6 +803,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -818,7 +824,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -975,6 +981,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1058,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1103,65 +1115,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1170,23 +1125,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,7 +1340,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1204,7 +1370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1269,248 +1435,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,6 +1727,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1565,7 +1745,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1577,6 +1757,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1702,11 +1883,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>84.04</v>
+    <v>111.75</v>
     <v>46.18</v>
-    <v>0.87560000000000004</v>
-    <v>-1.1000000000000001</v>
-    <v>-1.4493000000000001E-2</v>
+    <v>0.91259999999999997</v>
+    <v>29.6</v>
+    <v>0.368342</v>
+    <v>-0.44</v>
+    <v>-3.993E-3</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
     <v>2995</v>
@@ -1714,23 +1897,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>76.25</v>
+    <v>111.75</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.000000010936</v>
+    <v>45262.041460717184</v>
     <v>0</v>
-    <v>73.94</v>
-    <v>7378732768</v>
+    <v>97.780600000000007</v>
+    <v>10870810000</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>75.760000000000005</v>
-    <v>75.900000000000006</v>
-    <v>74.8</v>
+    <v>98.24</v>
+    <v>80.36</v>
+    <v>109.96</v>
+    <v>109.76</v>
     <v>98646160</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>1</v>
-    <v>1447187</v>
+    <v>12243764</v>
+    <v>1254326</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1762,6 +1946,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1781,6 +1967,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1797,7 +1984,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1808,13 +1995,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1878,13 +2068,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1928,6 +2124,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1935,6 +2134,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2320,9 +2522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9490,8 +9692,8 @@
       <c r="H172" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I172" s="5" t="s">
-        <v>18</v>
+      <c r="I172" s="5">
+        <v>0</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>18</v>
@@ -12188,1745 +12390,1928 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:M1 A4:M7 A15:M16 A19:M33 A191:M195 A2:M2 A9:M11 A13:M13 A37:M128 A130:M142 A144:M187 A188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:M1 A4:M7 A15:M16 A19:M33 A191:M195 A2:M2 A9:M11 A13:M13 A37:M128 A130:M142 A144:M171 A188 A173:M187 A172:H172 J172:M172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1410FA38-49CC-3D41-A1CF-E8F2FA4FA00D}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:16" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>7378732768</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>10870810000</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="51">
         <f>Financials!I8*0.01</f>
         <v>0.72939999999999994</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="51">
         <f>SUM(C11:E11)/3</f>
         <v>0.35993123825361911</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="53">
         <f>SUM(Financials!D129:H129)/5</f>
         <v>7.03151046995453E-2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>14466816598.436798</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="54">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>13989393941.757807</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="116" t="s">
+      <c r="K3" s="56">
+        <f>(Financials!I172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="O3" s="119"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58">
         <f>Financials!I56-Financials!I96-Financials!I105</f>
         <v>365666000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="40">
         <f>Financials!I17*0.01</f>
         <v>-0.14630000000000001</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.16922695033028248</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="61">
         <f>A5*(1+(5*0.05))</f>
         <v>123307700</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="53">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>11560063349.151331</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>11142212114.240406</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="42" cm="1">
+      <c r="K4" s="62" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.4493000000000001E-2</v>
-      </c>
-      <c r="L4" s="41" t="s">
+        <v>0.368342</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="O4" s="121"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>98646160</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="54">
+      <c r="B5" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="40">
         <f>Financials!I34*0.01</f>
         <v>-0.1933</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
+        <v>2.3358529268791841</v>
+      </c>
+      <c r="F5" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="49">
-        <f>SUM(C15:E15)/3</f>
-        <v>2.3358529268791841</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="51">
+      <c r="G5" s="61">
         <f>Financials!I56</f>
         <v>957093000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="39">
+        <f>I4+G5-G6</f>
+        <v>11507878114.240406</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="53">
-        <f>I4+G5-G6</f>
-        <v>11925729349.151331</v>
-      </c>
-      <c r="J5" s="50" t="s">
+      <c r="K5" s="65" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>109.96</v>
+      </c>
+      <c r="L5" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="55" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>74.8</v>
-      </c>
-      <c r="L5" s="48" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="O5" s="57">
+      <c r="O5" s="101">
         <f>Financials!I21</f>
         <v>25064000</v>
       </c>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="67">
         <f>O20/F10</f>
-        <v>5.9171874643143543</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="49">
+        <v>8.7175701684041709</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="40">
         <f>Financials!I190</f>
         <v>7.2207078346414585E-2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="40">
         <f>Financials!I33/Financials!I126</f>
         <v>-0.52248234856930509</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="61">
         <f>Financials!I96+Financials!I105</f>
         <v>591427000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="62">
+        <f>N25</f>
+        <v>7.878002815077384E-2</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="60">
-        <f>N25</f>
-        <v>7.7005221389292694E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="K6" s="41">
+        <f>I5/G4</f>
+        <v>93.3265166266211</v>
+      </c>
+      <c r="L6" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="61">
-        <f>I5/G4</f>
-        <v>96.715203909823401</v>
-      </c>
-      <c r="L6" s="62" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="O6" s="64">
+      <c r="O6" s="101">
         <f>Financials!I96</f>
         <v>11627000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>67.447283071297988</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>99.367550274223035</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="71">
+        <f>F15/O21</f>
+        <v>1.5267525876493392E-2</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="67">
-        <f>F14/O21</f>
-        <v>2.1956899873277421E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="69">
+      <c r="E7" s="72">
         <f>(Financials!I16*(1-0.25))/(Financials!I126+Financials!I105+Financials!I96)</f>
         <v>-0.12168369635647709</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="73">
         <f>(Financials!I96+Financials!I105)/Financials!I126</f>
         <v>1.4364682079942097</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="73" t="s">
+      <c r="K7" s="77">
+        <f>K6/K5-1</f>
+        <v>-0.15126849193687608</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="74">
-        <f>K6/K5-1</f>
-        <v>0.29298400948961767</v>
-      </c>
-      <c r="L7" s="75" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="100" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="O7" s="64">
+      <c r="O7" s="101">
         <f>Financials!I105</f>
         <v>579800000</v>
       </c>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="O8" s="78">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="79"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="O8" s="103">
         <f>O5/(O6+O7)</f>
         <v>4.2378856562179275E-2</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81">
         <v>2020</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="81">
         <v>2021</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="81">
         <v>2022</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="82">
         <v>2023</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="83">
         <v>2024</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="84">
         <v>2025</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="84">
         <v>2026</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="84">
         <v>2027</v>
       </c>
-      <c r="J9" s="82">
+      <c r="J9" s="85">
         <v>2028</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="O9" s="64">
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9" s="101">
         <f>Financials!I25</f>
         <v>29691000</v>
       </c>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="86">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="87">
         <v>427620000</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="87">
         <v>608489000</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="87">
         <v>862374000</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="88">
         <v>1068989000</v>
       </c>
       <c r="F10" s="87">
         <v>1247000000</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="87">
         <v>1471000000</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="87">
         <v>1781000000</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="87">
         <v>2177000000</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="88">
         <v>2582000000</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="N10" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="N10" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="O10" s="64">
+      <c r="O10" s="101">
         <f>Financials!I24</f>
         <v>-185427000</v>
       </c>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90">
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="90"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.42296665263551758</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="43">
         <f t="shared" si="0"/>
         <v>0.41723843816404238</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="43">
         <f t="shared" si="0"/>
         <v>0.23958862396129743</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="44">
         <f t="shared" si="0"/>
         <v>0.16652276122579379</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="43">
         <f t="shared" si="0"/>
         <v>0.17963111467522053</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="43">
         <f t="shared" si="0"/>
         <v>0.21074099252209377</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>0.22234699606962383</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="91">
         <f t="shared" si="0"/>
         <v>0.18603582912264582</v>
       </c>
-      <c r="K11" s="92">
+      <c r="K11" s="91">
         <f>SUM(F11:J11)/5</f>
         <v>0.19305553872307554</v>
       </c>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="O11" s="93">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="100" t="s">
+        <v>230</v>
+      </c>
+      <c r="O11" s="104">
         <f>O9/O10</f>
         <v>-0.16012231228461873</v>
       </c>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <v>-167174000</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="87">
         <v>-129434000</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="87">
         <v>-203848000</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="87">
         <v>-236161000</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="92">
         <v>109400000</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="87">
         <v>154600000</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="87">
         <v>234000000</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="87">
         <v>241000000</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="88">
         <v>285000000</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="94" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="95">
+      <c r="O12" s="104">
         <f>O8*(1-O11)</f>
         <v>4.9164657066893609E-2</v>
       </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="90"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.22575280845107493</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>0.57491849127740768</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="43">
         <f t="shared" si="1"/>
         <v>0.15851516816451472</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="44">
         <f t="shared" si="1"/>
         <v>-1.463243295887128</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="43">
         <f t="shared" si="1"/>
         <v>0.41316270566727598</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="43">
         <f t="shared" si="1"/>
         <v>0.51358344113842169</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
         <v>2.9914529914529808E-2</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="91">
         <f t="shared" si="1"/>
         <v>0.18257261410788383</v>
       </c>
-      <c r="K13" s="92">
-        <f>SUM(F13:J13)/5</f>
-        <v>-6.4802001011803334E-2</v>
-      </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="118" t="s">
+      <c r="K13" s="91">
+        <f>AVERAGE(G13:J13)</f>
+        <v>0.28480832270702783</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="121"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="46">
+        <f>B12/B10</f>
+        <v>-0.39094055469809647</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-0.21271378775951577</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="2"/>
+        <v>-0.23638003928689871</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>-0.22091995333908956</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>8.7730553327987168E-2</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.10509857239972807</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.13138686131386862</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.11070280202112999</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.11037955073586367</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="O14" s="104">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="87">
+        <v>-35627000</v>
+      </c>
+      <c r="C15" s="87">
+        <v>18316000</v>
+      </c>
+      <c r="D15" s="87">
+        <v>3187000</v>
+      </c>
+      <c r="E15" s="87">
+        <v>32978000</v>
+      </c>
+      <c r="F15" s="92">
+        <v>175000000</v>
+      </c>
+      <c r="G15" s="87">
+        <v>240000000</v>
+      </c>
+      <c r="H15" s="87">
+        <v>359000000</v>
+      </c>
+      <c r="I15" s="87">
+        <v>556000000</v>
+      </c>
+      <c r="J15" s="88">
+        <v>734000000</v>
+      </c>
+      <c r="K15" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="86">
-        <v>-35627000</v>
-      </c>
-      <c r="C14" s="86">
-        <v>18316000</v>
-      </c>
-      <c r="D14" s="86">
-        <v>3187000</v>
-      </c>
-      <c r="E14" s="86">
-        <v>32978000</v>
-      </c>
-      <c r="F14" s="87">
-        <v>175000000</v>
-      </c>
-      <c r="G14" s="86">
-        <v>240000000</v>
-      </c>
-      <c r="H14" s="86">
-        <v>359000000</v>
-      </c>
-      <c r="I14" s="86">
-        <v>556000000</v>
-      </c>
-      <c r="J14" s="86">
-        <v>734000000</v>
-      </c>
-      <c r="K14" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="63" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="O14" s="93">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="105" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="94"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-1.5141044713279255</v>
       </c>
-      <c r="D15" s="90">
-        <f t="shared" si="2"/>
+      <c r="D16" s="43">
+        <f t="shared" si="3"/>
         <v>-0.8259991264468225</v>
       </c>
-      <c r="E15" s="90">
-        <f t="shared" si="2"/>
+      <c r="E16" s="43">
+        <f t="shared" si="3"/>
         <v>9.3476623784123003</v>
       </c>
-      <c r="F15" s="91">
-        <f t="shared" si="2"/>
+      <c r="F16" s="44">
+        <f t="shared" si="3"/>
         <v>4.3065680150403303</v>
       </c>
-      <c r="G15" s="90">
-        <f t="shared" si="2"/>
+      <c r="G16" s="43">
+        <f t="shared" si="3"/>
         <v>0.37142857142857144</v>
       </c>
-      <c r="H15" s="90">
-        <f t="shared" si="2"/>
+      <c r="H16" s="43">
+        <f t="shared" si="3"/>
         <v>0.49583333333333335</v>
       </c>
-      <c r="I15" s="90">
-        <f t="shared" si="2"/>
+      <c r="I16" s="43">
+        <f t="shared" si="3"/>
         <v>0.54874651810584951</v>
       </c>
-      <c r="J15" s="90">
-        <f t="shared" si="2"/>
+      <c r="J16" s="91">
+        <f t="shared" si="3"/>
         <v>0.32014388489208634</v>
       </c>
-      <c r="K15" s="92">
-        <f>SUM(F15:J15)/5</f>
-        <v>1.2085440645600343</v>
-      </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="63" t="s">
+      <c r="K16" s="91">
+        <f>AVERAGE(G16:J16)</f>
+        <v>0.43403807693996016</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="O15" s="97" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.87560000000000004</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="O16" s="104">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="46">
+        <f>B15/B10</f>
+        <v>-8.3314625134465178E-2</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>3.0100790646996084E-2</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="4"/>
+        <v>3.6956123445280121E-3</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="4"/>
+        <v>3.0849709398319346E-2</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.14033680834001605</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.16315431679129844</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.20157215047725996</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.25539733578318785</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.28427575522850501</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="107">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>8.0391253999999995E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="98">
+      <c r="B18" s="96">
         <v>-0.28573822178382724</v>
       </c>
-      <c r="C16" s="98">
+      <c r="C18" s="96">
         <v>-0.20272834691696173</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D18" s="96">
         <v>-0.12901449407420759</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E18" s="96">
         <v>-0.14188082941726721</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="63" t="s">
+      <c r="F18" s="97"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="O16" s="93">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="O17" s="104">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.9236724000000008E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="120" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2012</v>
-      </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="O19" s="106">
+      <c r="O18" s="121"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>591427000</v>
       </c>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="100" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" s="108" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>10870810000</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2012</v>
+      </c>
+      <c r="D21" s="123"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="108">
+        <f>O19+O20</f>
+        <v>11462237000</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="122" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" s="106" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>7378732768</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="63" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="102" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="106">
-        <f>O19+O20</f>
-        <v>7970159768</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="77" t="s">
+      <c r="O22" s="109">
+        <f>(O19/O21)</f>
+        <v>5.1597868723182047E-2</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="O22" s="107">
-        <f>(O19/O21)</f>
-        <v>7.4205162407730549E-2</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="103" t="s">
+      <c r="O23" s="110">
+        <f>O20/O21</f>
+        <v>0.94840213127681794</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="112" t="s">
         <v>242</v>
       </c>
-      <c r="O23" s="108">
-        <f>O20/O21</f>
-        <v>0.92579483759226944</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="110" t="s">
-        <v>243</v>
-      </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="112">
+      <c r="O24" s="113"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.7005221389292694E-2</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="84"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="84"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="84"/>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+        <v>7.878002815077384E-2</v>
+      </c>
+      <c r="O25" s="115"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E25"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -13934,8 +14319,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:PLTR/explorer/revenue_proj" xr:uid="{70AD0D0A-A92A-4E4C-8F11-93FB040BDD92}"/>

--- a/Technology/Software/Elastic.xlsx
+++ b/Technology/Software/Elastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49984E2-E855-964A-9129-AE1DD2754F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220A05BC-E289-CA4B-9DCC-A7F3EEFF0BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,6 +1726,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1745,7 +1747,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1758,6 +1760,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1883,38 +1887,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>111.75</v>
+    <v>118.24</v>
     <v>46.18</v>
-    <v>0.91259999999999997</v>
-    <v>29.6</v>
-    <v>0.368342</v>
-    <v>-0.44</v>
-    <v>-3.993E-3</v>
+    <v>0.90659999999999996</v>
+    <v>2.59</v>
+    <v>2.2882E-2</v>
+    <v>0.59</v>
+    <v>5.0949999999999997E-3</v>
     <v>USD</v>
     <v>Elastic NV is a Netherlands-based data analytics company. The Company’s platform, which is available as both a hosted, managed service across public clouds as well as self-managed software, allows its customers to find insights from large amounts of data and take action. The Company offers three search-powered solutions - Enterprise Search, Observability, and Security - that are built into the platform, which is built on the Elastic Stack, a set of software products that ingest data from any source, in any format, and perform search, analysis, and visualization of that data. The Company helps organizations, their employees, and their customers find what they need, while keeping mission-critical applications running smoothly, and protecting against cyber threats. The Company generates revenue primarily from sales of subscriptions to its platform.</v>
-    <v>2995</v>
+    <v>3055</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Keizersgracht 281, AMSTERDAM, NOORD-HOLLAND, Amsterdam NL</v>
-    <v>111.75</v>
+    <v>118.24</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.041460717184</v>
+    <v>45269.038028599221</v>
     <v>0</v>
-    <v>97.780600000000007</v>
-    <v>10870810000</v>
+    <v>112.49</v>
+    <v>11535219290</v>
     <v>Elastic NV</v>
     <v>Elastic NV</v>
-    <v>98.24</v>
-    <v>80.36</v>
-    <v>109.96</v>
-    <v>109.76</v>
-    <v>98646160</v>
+    <v>112.74</v>
+    <v>113.19</v>
+    <v>115.78</v>
+    <v>116.4</v>
+    <v>99630500</v>
     <v>ESTC</v>
     <v>Elastic NV (XNYS:ESTC)</v>
-    <v>12243764</v>
-    <v>1254326</v>
+    <v>2501509</v>
+    <v>1938296</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -12449,7 +12453,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>10870810000</v>
+        <v>11535219290</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>195</v>
@@ -12477,7 +12481,7 @@
       </c>
       <c r="I3" s="54">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>13989393941.757807</v>
+        <v>14062779471.516867</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>199</v>
@@ -12522,21 +12526,21 @@
       </c>
       <c r="G4" s="61">
         <f>A5*(1+(5*0.05))</f>
-        <v>123307700</v>
+        <v>124538125</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>204</v>
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>11142212114.240406</v>
+        <v>11206424200.01466</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="62" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.368342</v>
+        <v>2.2882E-2</v>
       </c>
       <c r="L4" s="63" t="s">
         <v>245</v>
@@ -12553,7 +12557,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>98646160</v>
+        <v>99630500</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>207</v>
@@ -12581,14 +12585,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>11507878114.240406</v>
+        <v>11572090200.01466</v>
       </c>
       <c r="J5" s="60" t="s">
         <v>211</v>
       </c>
       <c r="K5" s="65" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>109.96</v>
+        <v>115.78</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>212</v>
@@ -12608,7 +12612,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="67">
         <f>O20/F10</f>
-        <v>8.7175701684041709</v>
+        <v>9.250376335204491</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>214</v>
@@ -12636,14 +12640,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>7.878002815077384E-2</v>
+        <v>7.8499381222881998E-2</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>217</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>93.3265166266211</v>
+        <v>92.920061226348636</v>
       </c>
       <c r="L6" s="68" t="s">
         <v>218</v>
@@ -12663,14 +12667,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>99.367550274223035</v>
+        <v>105.44076133455211</v>
       </c>
       <c r="B7" s="70" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="71">
         <f>F15/O21</f>
-        <v>1.5267525876493392E-2</v>
+        <v>1.443103029601105E-2</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>221</v>
@@ -12697,7 +12701,7 @@
       </c>
       <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>-0.15126849193687608</v>
+        <v>-0.1974428983732196</v>
       </c>
       <c r="L7" s="78" t="s">
         <v>224</v>
@@ -13024,7 +13028,7 @@
       </c>
       <c r="O14" s="104">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -13071,7 +13075,7 @@
       </c>
       <c r="O15" s="105" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.91259999999999997</v>
+        <v>0.90659999999999996</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -13176,7 +13180,7 @@
       </c>
       <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.0391253999999995E-2</v>
+        <v>8.0003413999999995E-2</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -13258,7 +13262,7 @@
       </c>
       <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>10870810000</v>
+        <v>11535219290</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -13288,7 +13292,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>11462237000</v>
+        <v>12126646290</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -13316,7 +13320,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>5.1597868723182047E-2</v>
+        <v>4.8770862599308157E-2</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -13341,7 +13345,7 @@
       </c>
       <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.94840213127681794</v>
+        <v>0.95122913740069182</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -13385,7 +13389,7 @@
       <c r="M25" s="42"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.878002815077384E-2</v>
+        <v>7.8499381222881998E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="38"/>
